--- a/OnlineApp/Document/design/数据库表设计.xlsx
+++ b/OnlineApp/Document/design/数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22728" windowHeight="8327"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>int</t>
@@ -212,12 +212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,37 +277,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,10 +344,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,69 +360,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,14 +383,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,187 +393,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,41 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,17 +652,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,162 +684,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,7 +1212,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1239,475 +1229,475 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
     </row>

--- a/OnlineApp/Document/design/数据库表设计.xlsx
+++ b/OnlineApp/Document/design/数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8327"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>课程(YW_Course)</t>
   </si>
   <si>
-    <t>上课表(YW_Course_Join)</t>
+    <t>学生上课表(YW_Course_Join)</t>
+  </si>
+  <si>
+    <t>计划表(YW_Course_Plan)</t>
+  </si>
+  <si>
+    <t>评论表(YW_Comment)</t>
+  </si>
+  <si>
+    <t>作业表(YW_Assignment)</t>
+  </si>
+  <si>
+    <t>资料表(YW_Course_Data)</t>
+  </si>
+  <si>
+    <t>测试表(YW_Exam)</t>
+  </si>
+  <si>
+    <t>题目表(YW_Exam_Question)</t>
+  </si>
+  <si>
+    <t>答题表(YW_Exam_Answer)</t>
+  </si>
+  <si>
+    <t>成绩表(YW_Exam_Answer)</t>
   </si>
   <si>
     <t>字段名称</t>
@@ -66,6 +90,18 @@
     <t>关联课程ID</t>
   </si>
   <si>
+    <t>planId</t>
+  </si>
+  <si>
+    <t>计划Id</t>
+  </si>
+  <si>
+    <t>examId</t>
+  </si>
+  <si>
+    <t>测试Id</t>
+  </si>
+  <si>
     <t>linkBook</t>
   </si>
   <si>
@@ -78,6 +114,27 @@
     <t>关联课程名称</t>
   </si>
   <si>
+    <t>planName</t>
+  </si>
+  <si>
+    <t>计划Name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>题目类型(单选题、段选题、主观题)</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>考试成绩</t>
+  </si>
+  <si>
     <t>teacherName</t>
   </si>
   <si>
@@ -87,22 +144,100 @@
     <t>教师名</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>计划名称</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>主观题支持照片查看</t>
+  </si>
+  <si>
+    <t>objectAnswer</t>
+  </si>
+  <si>
+    <t>主观题参考答案</t>
+  </si>
+  <si>
+    <t>studentName</t>
+  </si>
+  <si>
+    <t>学生名称</t>
+  </si>
+  <si>
     <t>teacherId</t>
   </si>
   <si>
     <t>教师ID</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>审核状态</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
+    <t>内容及注意事项</t>
+  </si>
+  <si>
+    <t>该题目分值</t>
+  </si>
+  <si>
+    <t>objectpic</t>
+  </si>
+  <si>
+    <t>主观题答案支持照片查看</t>
+  </si>
+  <si>
+    <t>studentId</t>
+  </si>
+  <si>
+    <t>学生ID</t>
+  </si>
+  <si>
     <t>课程描述</t>
   </si>
   <si>
-    <t>studentName</t>
-  </si>
-  <si>
-    <t>学生名称</t>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>计划类型(讲课、自习、测试)</t>
+  </si>
+  <si>
+    <t>createUserName</t>
+  </si>
+  <si>
+    <t>创建人名称</t>
+  </si>
+  <si>
+    <t>chance1</t>
+  </si>
+  <si>
+    <t>选项1内容</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>答题结果(争取、错误)</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
   </si>
   <si>
     <t>title</t>
@@ -111,10 +246,25 @@
     <t>课程种类标签</t>
   </si>
   <si>
-    <t>studentId</t>
-  </si>
-  <si>
-    <t>学生ID</t>
+    <t>计划图片</t>
+  </si>
+  <si>
+    <t>createUserId</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+  </si>
+  <si>
+    <t>chance2</t>
+  </si>
+  <si>
+    <t>选项2内容</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>更新时间</t>
   </si>
   <si>
     <t>span</t>
@@ -123,22 +273,85 @@
     <t>课程标签</t>
   </si>
   <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>视频地址(在线和非在线)</t>
+  </si>
+  <si>
+    <t>updateUserName</t>
+  </si>
+  <si>
+    <t>更新人名称</t>
+  </si>
+  <si>
+    <t>chance3</t>
+  </si>
+  <si>
+    <t>选项3内容</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>课程状态</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>自习地址</t>
+  </si>
+  <si>
+    <t>updateUserId</t>
+  </si>
+  <si>
+    <t>更新人ID</t>
+  </si>
+  <si>
+    <t>chance4</t>
+  </si>
+  <si>
+    <t>选项4内容</t>
+  </si>
+  <si>
+    <t>courseNum</t>
+  </si>
+  <si>
+    <t>参加人数(关联学生)</t>
+  </si>
+  <si>
     <t>lastTime</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>最近上课时间</t>
   </si>
   <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-  </si>
-  <si>
-    <t>课程状态</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>测试地址</t>
+  </si>
+  <si>
+    <t>评论内容</t>
+  </si>
+  <si>
+    <t>作业标题</t>
+  </si>
+  <si>
+    <t>资料标题</t>
+  </si>
+  <si>
+    <t>考试标题</t>
+  </si>
+  <si>
+    <t>chance5</t>
+  </si>
+  <si>
+    <t>选项5内容(最多支持5个选项)</t>
+  </si>
+  <si>
+    <t>课程图片</t>
   </si>
   <si>
     <t>alternate1</t>
@@ -147,10 +360,25 @@
     <t>备用字段1</t>
   </si>
   <si>
-    <t>courseNum</t>
-  </si>
-  <si>
-    <t>参加人数(关联学生)</t>
+    <t>planTime</t>
+  </si>
+  <si>
+    <t>计划时间</t>
+  </si>
+  <si>
+    <t>作业描述及注意事项</t>
+  </si>
+  <si>
+    <t>资料描述及注意事项</t>
+  </si>
+  <si>
+    <t>考试描述及注意事项</t>
+  </si>
+  <si>
+    <t>chanceAnswer</t>
+  </si>
+  <si>
+    <t>客观题答案</t>
   </si>
   <si>
     <t>alternate2</t>
@@ -159,10 +387,22 @@
     <t>备用字段2</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>创建时间</t>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>作业附件链接</t>
+  </si>
+  <si>
+    <t>资料附件链接</t>
+  </si>
+  <si>
+    <t>考试附件链接(一般为空)</t>
   </si>
   <si>
     <t>alternate3</t>
@@ -171,10 +411,13 @@
     <t>备用字段3</t>
   </si>
   <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>更新时间</t>
+    <t>finishTime</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>支持数</t>
   </si>
   <si>
     <t>alternate4</t>
@@ -183,10 +426,10 @@
     <t>备用字段4</t>
   </si>
   <si>
-    <t>updateUserName</t>
-  </si>
-  <si>
-    <t>更新人名称</t>
+    <t>oppose</t>
+  </si>
+  <si>
+    <t>反对数</t>
   </si>
   <si>
     <t>alternate5</t>
@@ -195,16 +438,10 @@
     <t>备用字段5</t>
   </si>
   <si>
-    <t>updateUserId</t>
-  </si>
-  <si>
-    <t>更新人ID</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>审核状态</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>分享数</t>
   </si>
 </sst>
 </file>
@@ -212,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -241,14 +478,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,51 +583,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,38 +599,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -370,17 +607,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,7 +630,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,79 +756,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,19 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,43 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +839,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -619,44 +865,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,15 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,6 +901,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,31 +944,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,116 +977,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +1100,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,23 +1455,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:BE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17:AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.0277777777778" customWidth="1"/>
     <col min="7" max="7" width="12.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="12.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="12.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="9.77777777777778" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="18" max="19" width="15.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="8.77777777777778" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="24" max="24" width="16.8703703703704" customWidth="1"/>
+    <col min="25" max="25" width="12.4166666666667" customWidth="1"/>
+    <col min="27" max="27" width="13.7314814814815" customWidth="1"/>
+    <col min="28" max="28" width="8.98148148148148" customWidth="1"/>
+    <col min="30" max="30" width="15.5555555555556" customWidth="1"/>
+    <col min="33" max="33" width="17.0555555555556" customWidth="1"/>
+    <col min="36" max="36" width="11.6111111111111" customWidth="1"/>
+    <col min="37" max="37" width="13.5277777777778" customWidth="1"/>
+    <col min="38" max="38" width="10.6944444444444" customWidth="1"/>
+    <col min="39" max="39" width="19.0833333333333" customWidth="1"/>
+    <col min="42" max="42" width="12.0092592592593" customWidth="1"/>
+    <col min="43" max="43" width="12.0185185185185" customWidth="1"/>
+    <col min="45" max="45" width="23.3333333333333" customWidth="1"/>
+    <col min="48" max="48" width="15.9537037037037" customWidth="1"/>
+    <col min="49" max="49" width="14.75" customWidth="1"/>
+    <col min="50" max="50" width="9.58333333333333" customWidth="1"/>
+    <col min="51" max="51" width="13.2222222222222" customWidth="1"/>
+    <col min="54" max="54" width="14.9444444444444" customWidth="1"/>
+    <col min="55" max="55" width="14.6388888888889" customWidth="1"/>
+    <col min="56" max="56" width="11.8148148148148" customWidth="1"/>
+    <col min="57" max="57" width="15.9537037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,473 +1512,2555 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="6"/>
+      <c r="AD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AP1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AV1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="BB1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:57">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AD2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:57">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:57">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:57">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:57">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="S6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="Y6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:57">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:57">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:57">
       <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="A10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="A11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
+      <c r="T12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>37</v>
+    <row r="13" spans="1:57">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="14" spans="1:57">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
+      <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>46</v>
+    <row r="17" spans="1:57">
+      <c r="A17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
+    <row r="18" spans="1:57">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE18" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    <row r="19" spans="1:51">
+      <c r="A19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="S22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>54</v>
+      <c r="X22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>58</v>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>60</v>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BB1:BE1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
